--- a/carteira_servicos_MBP/n8n/freguesia_fora_do_prazo.xlsx
+++ b/carteira_servicos_MBP/n8n/freguesia_fora_do_prazo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t>Número OS</t>
   </si>
@@ -37,55 +37,73 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t xml:space="preserve"> AVENIDA SENADOR JOSE ERMIRIO DE MORAES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA SERRANA FLUMINENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA LUCINDO PASSOS FILHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA JOAQUIM SIMOES</t>
+    <t xml:space="preserve"> RUA CESARIO VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA OTELO ZELONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DORA DA PENHA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA JOAO MELO DA CAMARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SANTO ANTONIO DE PADUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA IBIRAIARAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MINISTRO LINS DE BARROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA CABITUTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA BARAO DE SANTO ANGELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ALFREDO MARGARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA MARCELINO DE CAMARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASSAGEM RODOLFO MOSER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA ERNESTO LUIS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SILVIO CASSIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA DOUTOR MIGUEL DORGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA PADRE JOSE MATERNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA RIO DOS CEDROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA BONIFACIO CUBAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA PARADA PINTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA GERVASIO LEITE REBELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA SAMARITA</t>
   </si>
   <si>
     <t xml:space="preserve"> VIELA CONDESSA AMALIA MATARAZZO</t>
   </si>
   <si>
-    <t xml:space="preserve"> RUA ITATIBA DO SUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIELA DOIS DA RUA JOSE A. NASCIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA DOUTOR MILTON CESAR RIBEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA ALVARES OTERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA JOSE DE SA ACCIOLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TRAVESSA EBENEZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA MAMUD RAHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA CESARIO VERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AVENIDA GENERAL PENHA BRASIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA CONSELHEIRO MOREIRA DE BARROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA PROFESSORA ANESIA SINCORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUA C DO CJ HAB LIDIANE I</t>
+    <t xml:space="preserve"> RUA CACHOEIRA DOS ANTUNES</t>
   </si>
   <si>
     <t>DESOBSTRUIR REDE DE ESGOTO</t>
@@ -97,10 +115,34 @@
     <t>DESOBSTRUIR RETORNO PARA IMOVEL</t>
   </si>
   <si>
+    <t>VAZAMENTO DE ÁGUA LEITO PAVIMENTADO</t>
+  </si>
+  <si>
+    <t>VAZAMENTO DE ÁGUA NO PASSEIO</t>
+  </si>
+  <si>
+    <t>REGISTRO DO CAVALETE QUEBRADO</t>
+  </si>
+  <si>
+    <t>REPOR PASSEIO ADJACENTE CIMENTADO</t>
+  </si>
+  <si>
+    <t>POUCA PRESSÃO DE ÁGUA LOCAL</t>
+  </si>
+  <si>
     <t>Freguesia</t>
   </si>
   <si>
     <t>DESOBSTRUÇÕES</t>
+  </si>
+  <si>
+    <t>VAZAMENTO DE ÁGUA</t>
+  </si>
+  <si>
+    <t>CAVALETE</t>
+  </si>
+  <si>
+    <t>PA CIM; PI CIM; RET ENTULHO; BASE P/CAPA (12H)</t>
   </si>
   <si>
     <t>Fora do prazo</t>
@@ -461,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,393 +534,531 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2524689786</v>
+        <v>2526892256</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>63.17</v>
+        <v>97.23</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2524703996</v>
+        <v>2526932963</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>61.3</v>
+        <v>92.94</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2561178418</v>
+        <v>2527048067</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>60.74</v>
+        <v>71.39</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2524715234</v>
+        <v>2526968814</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>57.79</v>
+        <v>88.81</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2524745118</v>
+        <v>2562628654</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>44.32</v>
+        <v>70.84</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2524747385</v>
+        <v>2562497602</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>44.09</v>
+        <v>116.68</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2524762419</v>
+        <v>2527115176</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>42.65</v>
+        <v>47.01</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2524768071</v>
+        <v>2527115768</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>41.99</v>
+        <v>46.26</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>2561243869</v>
+        <v>2527116089</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>41.97</v>
+        <v>45.83</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2524771055</v>
+        <v>2527128131</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>41.64</v>
+        <v>26.54</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2524771518</v>
+        <v>2527128383</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>41.57</v>
+        <v>26.43</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2524777561</v>
+        <v>2527128468</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E13">
-        <v>40.9</v>
+        <v>26.38</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2524778188</v>
+        <v>2527129881</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>40.84</v>
+        <v>25.98</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2561253825</v>
+        <v>2527130249</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>39.92</v>
+        <v>25.89</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2561266506</v>
+        <v>2562692261</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>38.09</v>
+        <v>25.74</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2524807010</v>
+        <v>2527132041</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>37.52</v>
+        <v>25.56</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2524817915</v>
+        <v>2527134625</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>25.16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2526677355</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>25.08</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2527136834</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>24.86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2527140507</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>24.48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2527141402</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="E18">
-        <v>31.62</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>24.39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2527142047</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>24.34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2527143797</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>24.18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
